--- a/data/trans_bre/P7C_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P7C_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,73</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-14,87</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>26,72%</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>52,64%</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>144,74%</t>
+          <t>26,57%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>45,72%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>155,62%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-43,5%</t>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>81,01%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-36,67%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,97%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 6,76</t>
+          <t>-5,95; 7,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 5,97</t>
+          <t>-3,57; 5,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 9,39</t>
+          <t>-0,67; 8,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,49; 12,43</t>
+          <t>3,19; 10,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-34,59; 5,01</t>
+          <t>-2,67; 11,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-70,56; 218,36</t>
+          <t>-12,22; 3,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-71,12; 566,39</t>
+          <t>-10,05; 9,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-41,32; 1068,01</t>
+          <t>-59,49; 251,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>-64,9; 533,39</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-33,03; 989,06</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-77,75; 26,88</t>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-34,44; 405,02</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-77,7; 65,76</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-51,64; 99,52</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,5</t>
+          <t>18,49</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,43</t>
+          <t>15,69</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,4</t>
+          <t>19,2</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,15</t>
+          <t>14,94</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,02</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>65,57%</t>
+          <t>14,4</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>52,37%</t>
+          <t>29,26</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>66,45%</t>
+          <t>65,53%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>50,49%</t>
+          <t>50,31%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>66,87%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>50,31%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1,67%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>63,94%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>185,88%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,41; 27,82</t>
+          <t>6,55; 28,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 27,29</t>
+          <t>1,57; 26,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,07; 28,66</t>
+          <t>6,94; 28,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,0; 25,74</t>
+          <t>2,34; 24,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 34,56</t>
+          <t>-17,28; 14,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,34; 122,02</t>
+          <t>4,01; 25,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,05; 111,89</t>
+          <t>18,36; 39,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,93; 120,11</t>
+          <t>17,72; 128,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,32; 109,23</t>
+          <t>2,85; 108,92</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-15,38; 80,66</t>
+          <t>16,27; 122,49</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4,79; 103,99</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-30,84; 41,63</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>15,32; 149,72</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>75,26; 367,48</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,56</t>
+          <t>-5,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,3</t>
+          <t>-6,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,69</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-9,03</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-14,28%</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-11,03%</t>
+          <t>-5,98</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-17,64%</t>
+          <t>-14,27%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-12,21%</t>
+          <t>-6,56%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-15,53%</t>
+          <t>-15,73%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-9,24%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,26%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-14,12%</t>
         </is>
       </c>
     </row>
@@ -934,52 +1066,72 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 2,92</t>
+          <t>-13,8; 2,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 5,31</t>
+          <t>-13,23; 7,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,59; 1,04</t>
+          <t>-15,37; 1,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,23; 3,78</t>
+          <t>-12,02; 4,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,13; 2,89</t>
+          <t>-7,32; 12,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,46; 8,7</t>
+          <t>-9,14; 8,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-32,82; 17,09</t>
+          <t>-15,46; 4,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-33,3; 2,48</t>
+          <t>-31,63; 7,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-30,14; 11,16</t>
+          <t>-28,59; 21,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-32,15; 5,52</t>
+          <t>-32,78; 4,61</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-28,13; 12,81</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-15,05; 34,3</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-23,15; 29,43</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-32,79; 11,96</t>
         </is>
       </c>
     </row>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-9,86</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>-5,4</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>-31,43%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-28,38%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-21,17%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>36,66%</t>
+          <t>-29,93%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-43,36%</t>
+          <t>-23,85%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>32,96%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1,86%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-55,51%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>3,97%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1226,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 1,39</t>
+          <t>-5,07; 1,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 1,79</t>
+          <t>-5,44; 1,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 2,29</t>
+          <t>-6,75; 1,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 4,51</t>
+          <t>-2,15; 4,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,9; 3,57</t>
+          <t>-6,29; 7,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-66,56; 50,75</t>
+          <t>-12,13; 0,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-71,8; 56,52</t>
+          <t>-6,31; 7,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-68,91; 80,78</t>
+          <t>-68,07; 56,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-30,9; 172,63</t>
+          <t>-72,33; 61,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-76,16; 30,34</t>
+          <t>-72,66; 58,31</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-38,87; 189,98</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-28,25; 47,95</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-82,11; 6,29</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-31,17; 54,94</t>
         </is>
       </c>
     </row>
@@ -1121,47 +1313,67 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>0,13</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-3,45</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>82,17%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>24,86%</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>31,2%</t>
+          <t>82,15%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>26,62%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-6,97%</t>
+          <t>31,02%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7,74%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-6,04%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,6%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>47,56%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1386,72 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 5,53</t>
+          <t>-1,19; 5,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 4,39</t>
+          <t>-2,61; 4,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 4,74</t>
+          <t>-2,03; 4,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 2,88</t>
+          <t>-1,92; 2,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-34,84; 30,23</t>
+          <t>-4,38; 3,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-35,61; 473,73</t>
+          <t>-4,32; 4,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-59,09; 218,78</t>
+          <t>-2,48; 7,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-57,79; 326,46</t>
+          <t>-38,55; 448,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-81,97; 301,62</t>
+          <t>-54,73; 245,27</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-53,08; 120,7</t>
+          <t>-53,66; 295,12</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-73,7; 349,57</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-72,35; 161,94</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-57,91; 187,76</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-32,34; 228,66</t>
         </is>
       </c>
     </row>
@@ -1236,52 +1468,72 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,02</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-29,07</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-80,51%</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-61,05%</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-56,36%</t>
+          <t>-80,46%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>69,18%</t>
+          <t>-58,61%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-50,95%</t>
+          <t>-47,58%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>60,12%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>133,92%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-34,07%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>20,66%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1546,72 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 0,27</t>
+          <t>-11,17; 0,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,01; 1,43</t>
+          <t>-13,79; 1,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,0; 1,86</t>
+          <t>-13,04; 1,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 3,9</t>
+          <t>-1,74; 3,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-75,04; 26,02</t>
+          <t>-1,84; 13,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-4,5; 1,95</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-3,62; 5,61</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 141,48</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 201,85</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-76,68; —</t>
+          <t>-100,0; 153,2</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-92,79; 90,2</t>
+          <t>-100,0; 226,16</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-85,62; 918,83</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-61,13; 332,65</t>
         </is>
       </c>
     </row>
@@ -1361,47 +1633,67 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-6,94%</t>
+          <t>6,45%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>14,12%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2,76%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-3,43%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>15,72%</t>
         </is>
       </c>
     </row>
@@ -1414,66 +1706,93 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 3,39</t>
+          <t>-2,7; 3,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 3,49</t>
+          <t>-3,55; 3,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 3,62</t>
+          <t>-2,02; 4,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 4,88</t>
+          <t>-1,1; 4,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 5,2</t>
+          <t>-4,55; 4,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 24,47</t>
+          <t>-3,97; 2,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-20,77; 26,37</t>
+          <t>-0,95; 6,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 26,42</t>
+          <t>-15,09; 26,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 40,23</t>
+          <t>-18,77; 27,89</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-22,67; 11,83</t>
+          <t>-11,9; 30,24</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-7,18; 39,46</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-18,17; 24,96</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-23,55; 19,46</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-4,95; 40,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
